--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Javna Ustanova Apoteke Sarajevo</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Sarajevo, 08.07.2021</t>
+    <t>Sarajevo, 11.07.2021</t>
   </si>
   <si>
     <t>godine</t>
@@ -51,6 +51,9 @@
     <t>zvanje - položaj</t>
   </si>
   <si>
+    <t xml:space="preserve">Farmaceutski tehničar                                                                                                                                                                                                                                          </t>
+  </si>
+  <si>
     <t>, sa dnevnicom</t>
   </si>
   <si>
@@ -66,12 +69,15 @@
     <t>otputovaće po službenom poslu u mjesto-a</t>
   </si>
   <si>
-    <t>RIO, Brazil</t>
+    <t>KS, Albanija</t>
   </si>
   <si>
     <t>radi</t>
   </si>
   <si>
+    <t>Edukacija/trening</t>
+  </si>
+  <si>
     <t>Putovanje će trajati</t>
   </si>
   <si>
@@ -93,7 +99,7 @@
     <t>Pravac putovanja</t>
   </si>
   <si>
-    <t>SARAJEVO - RIO</t>
+    <t>SARAJEVO - KS</t>
   </si>
   <si>
     <t>(direktor)</t>
@@ -1424,17 +1430,19 @@
         <v>10</v>
       </c>
       <c r="J11" s="56"/>
-      <c r="K11" s="54"/>
+      <c r="K11" s="54" t="s">
+        <v>11</v>
+      </c>
       <c r="L11" s="54"/>
       <c r="M11" s="56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N11" s="56"/>
       <c r="O11" s="13">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1446,17 +1454,17 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="I12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J12" s="54">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="K12" s="54"/>
       <c r="L12" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M12" s="57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N12" s="57"/>
       <c r="O12" s="57"/>
@@ -1471,7 +1479,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="I13" s="65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" s="65"/>
       <c r="K13" s="65"/>
@@ -1490,9 +1498,11 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="58"/>
+        <v>18</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>19</v>
+      </c>
       <c r="K14" s="58"/>
       <c r="L14" s="58"/>
       <c r="M14" s="58"/>
@@ -1509,7 +1519,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J15" s="52"/>
       <c r="K15" s="59">
@@ -1517,14 +1527,14 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N15" s="59">
         <v>4</v>
       </c>
       <c r="O15" s="59"/>
       <c r="P15" s="50" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1536,7 +1546,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="I16" s="52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
@@ -1555,11 +1565,11 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="I17" s="56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
@@ -1576,11 +1586,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="I18" s="52" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" s="52"/>
       <c r="K18" s="53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L18" s="53"/>
       <c r="M18" s="53"/>
@@ -1653,7 +1663,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="O22" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P22" s="5"/>
     </row>
@@ -1671,7 +1681,7 @@
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="O23" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P23" s="5"/>
     </row>
@@ -2007,7 +2017,7 @@
       <c r="F2" s="64"/>
       <c r="G2" s="6"/>
       <c r="I2" s="95" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
@@ -2026,7 +2036,7 @@
       <c r="F3" s="64"/>
       <c r="G3" s="6"/>
       <c r="I3" s="56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" s="56"/>
       <c r="K3" s="56"/>
@@ -2045,7 +2055,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
       <c r="I4" s="56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J4" s="56"/>
       <c r="K4" s="56"/>
@@ -2064,7 +2074,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
       <c r="I5" s="56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="56"/>
       <c r="K5" s="56"/>
@@ -2100,7 +2110,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="I7" s="96" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J7" s="97"/>
       <c r="K7" s="97"/>
@@ -2108,7 +2118,7 @@
       <c r="M7" s="97"/>
       <c r="N7" s="97"/>
       <c r="O7" s="98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="99"/>
     </row>
@@ -2121,14 +2131,14 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="I8" s="79" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J8" s="80"/>
       <c r="K8" s="80"/>
       <c r="L8" s="80"/>
       <c r="M8" s="80"/>
       <c r="N8" s="26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O8" s="31"/>
       <c r="P8" s="44"/>
@@ -2142,7 +2152,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="I9" s="84" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J9" s="85"/>
       <c r="K9" s="85"/>
@@ -2171,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
@@ -2214,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P12" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
@@ -2249,7 +2259,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J14" s="89"/>
       <c r="K14" s="89"/>
@@ -2272,18 +2282,18 @@
       </c>
       <c r="J15" s="101"/>
       <c r="K15" s="33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="101">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="N15" s="101"/>
       <c r="O15" s="35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P15" s="48">
-        <v>396</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2299,18 +2309,18 @@
       </c>
       <c r="J16" s="59"/>
       <c r="K16" s="103" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L16" s="103"/>
       <c r="M16" s="67">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="N16" s="67"/>
       <c r="O16" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P16" s="49">
-        <v>198</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2322,7 +2332,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="I17" s="90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J17" s="91"/>
       <c r="K17" s="91"/>
@@ -2343,7 +2353,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="I18" s="92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J18" s="93"/>
       <c r="K18" s="93"/>
@@ -2362,7 +2372,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="I19" s="66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J19" s="67"/>
       <c r="K19" s="67"/>
@@ -2372,7 +2382,7 @@
         <v>2000</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P19" s="48" t="str">
         <f>SUM(N19:N21)</f>
@@ -2396,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>SUM(N19:N21)/2</f>
@@ -2431,7 +2441,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="I22" s="69" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J22" s="70"/>
       <c r="K22" s="70"/>
@@ -2439,7 +2449,7 @@
       <c r="M22" s="70"/>
       <c r="N22" s="71"/>
       <c r="O22" s="40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P22" s="49" t="str">
         <f>SUM(P10,P15,P19)</f>
@@ -2461,7 +2471,7 @@
       <c r="M23" s="73"/>
       <c r="N23" s="74"/>
       <c r="O23" s="41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>SUM(P12,P16,P20)/2</f>
@@ -2477,7 +2487,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="I24" s="75" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="70"/>
@@ -2485,7 +2495,7 @@
       <c r="M24" s="70"/>
       <c r="N24" s="71"/>
       <c r="O24" s="40" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P24" s="49">
         <v>200</v>
@@ -2506,7 +2516,7 @@
       <c r="M25" s="77"/>
       <c r="N25" s="78"/>
       <c r="O25" s="41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P25" s="49">
         <v>100</v>
@@ -2521,12 +2531,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="I26" s="81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J26" s="82"/>
       <c r="K26" s="82"/>
       <c r="L26" s="43" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M26" s="58" t="str">
         <f>P22-P24</f>
@@ -2534,7 +2544,7 @@
       </c>
       <c r="N26" s="83"/>
       <c r="O26" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P26" s="49" t="str">
         <f>P23-P25</f>
@@ -2550,22 +2560,22 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="I27" s="104" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J27" s="106" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K27" s="107"/>
       <c r="L27" s="106" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M27" s="107"/>
       <c r="N27" s="106" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O27" s="107"/>
       <c r="P27" s="110" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,98 +16,131 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Javna Ustanova Apoteke Sarajevo</t>
   </si>
   <si>
+    <t>POTVRDA O IZVRŠENJU NALOGA</t>
+  </si>
+  <si>
+    <t>(preduzeće-organizacija)</t>
+  </si>
+  <si>
+    <t>Broj</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Sarajevo, 22.07.2021</t>
+  </si>
+  <si>
+    <t>godine</t>
+  </si>
+  <si>
+    <t>1. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>boravio-la u vezi sa prednjim putnim nalogom u ovom preduzeću - organu</t>
+  </si>
+  <si>
+    <t>od</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
+  </si>
+  <si>
+    <t>M.P</t>
+  </si>
+  <si>
+    <t>Hajra Eskić</t>
+  </si>
+  <si>
+    <t>(potpis ovlaštenog lica)</t>
+  </si>
+  <si>
+    <t>(ime i prezime)</t>
+  </si>
+  <si>
+    <t>zvanje - položaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukovodilac                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>, sa dnevnicom</t>
+  </si>
+  <si>
+    <t>vrste</t>
+  </si>
+  <si>
+    <t>2. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>u iznosu</t>
+  </si>
+  <si>
+    <t>KM,</t>
+  </si>
+  <si>
+    <t>otputovaće po službenom poslu u mjesto-a</t>
+  </si>
+  <si>
+    <t>TUZLA, Bosna i Hercegovina</t>
+  </si>
+  <si>
+    <t>radi</t>
+  </si>
+  <si>
+    <t>Edukacija/trening</t>
+  </si>
+  <si>
+    <t>Putovanje će trajati</t>
+  </si>
+  <si>
+    <t>dana</t>
+  </si>
+  <si>
+    <t>sati</t>
+  </si>
+  <si>
+    <t>Troškovi putovanja padaju na teret</t>
+  </si>
+  <si>
+    <t>Prevozna sredstva:</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Pravac putovanja</t>
+  </si>
+  <si>
+    <t>SARAJEVO - TUZLA</t>
+  </si>
+  <si>
+    <t>3. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>(direktor)</t>
+  </si>
+  <si>
+    <t>M.P.</t>
+  </si>
+  <si>
+    <t>4. Potvrđuje se da je</t>
+  </si>
+  <si>
+    <t>5. Potvrđuje se da je</t>
+  </si>
+  <si>
     <t>IZVJEŠTAJ O SLUŽBENOM PUTOVANJU</t>
   </si>
   <si>
-    <t>(preduzeće-organizacija)</t>
-  </si>
-  <si>
-    <t>Broj</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Sarajevo, 11.07.2021</t>
-  </si>
-  <si>
-    <t>godine</t>
-  </si>
-  <si>
-    <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
-  </si>
-  <si>
-    <t>Jasmina Jusić</t>
-  </si>
-  <si>
-    <t>(ime i prezime)</t>
-  </si>
-  <si>
-    <t>zvanje - položaj</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmaceutski tehničar                                                                                                                                                                                                                                          </t>
-  </si>
-  <si>
-    <t>, sa dnevnicom</t>
-  </si>
-  <si>
-    <t>vrste</t>
-  </si>
-  <si>
-    <t>u iznosu</t>
-  </si>
-  <si>
-    <t>KM,</t>
-  </si>
-  <si>
-    <t>otputovaće po službenom poslu u mjesto-a</t>
-  </si>
-  <si>
-    <t>KS, Albanija</t>
-  </si>
-  <si>
-    <t>radi</t>
-  </si>
-  <si>
-    <t>Edukacija/trening</t>
-  </si>
-  <si>
-    <t>Putovanje će trajati</t>
-  </si>
-  <si>
-    <t>dana</t>
-  </si>
-  <si>
-    <t>sati</t>
-  </si>
-  <si>
-    <t>Troškovi putovanja padaju na teret</t>
-  </si>
-  <si>
-    <t>Prevozna sredstva:</t>
-  </si>
-  <si>
-    <t>Avion</t>
-  </si>
-  <si>
-    <t>Pravac putovanja</t>
-  </si>
-  <si>
-    <t>SARAJEVO - KS</t>
-  </si>
-  <si>
-    <t>(direktor)</t>
-  </si>
-  <si>
-    <t>M.P.</t>
-  </si>
-  <si>
     <t>OBRAČUN TROŠKOVA PUTOVANJA</t>
   </si>
   <si>
@@ -132,13 +165,25 @@
     <t>Iznos</t>
   </si>
   <si>
-    <t>AVION</t>
+    <t>AUTO</t>
+  </si>
+  <si>
+    <t>AUTO2</t>
   </si>
   <si>
     <t>KM</t>
   </si>
   <si>
+    <t>AUTO3</t>
+  </si>
+  <si>
+    <t>AUTO4</t>
+  </si>
+  <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>AUTO5</t>
   </si>
   <si>
     <t>B) Dnevnice</t>
@@ -401,6 +446,130 @@
       </bottom>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -431,12 +600,12 @@
       </top>
     </border>
     <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thin">
@@ -448,130 +617,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -579,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -736,15 +781,39 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -754,46 +823,121 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -802,7 +946,7 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -814,106 +958,10 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="33" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="35" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="36" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -1216,92 +1264,93 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="true" style="0"/>
     <col min="8" max="8" width="8.88671875" customWidth="true" style="0"/>
     <col min="9" max="9" width="8.6640625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="60" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4"/>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="61" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="5"/>
       <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
+      <c r="G4" s="5"/>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="59"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1311,13 +1360,15 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
+      <c r="A5" s="112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="112"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1328,13 +1379,15 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1345,32 +1398,38 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="18">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="5"/>
       <c r="I8" s="18"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1381,231 +1440,251 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="I9" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
+      <c r="F10" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="I10" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="56" t="s">
+      <c r="G11" s="5"/>
+      <c r="I11" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="64"/>
+      <c r="K11" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="53"/>
+      <c r="M11" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="64"/>
+      <c r="O11" s="13">
+        <v>25</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="112"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="I12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="53">
+        <v>25</v>
+      </c>
+      <c r="K12" s="53"/>
+      <c r="L12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="I13" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="54" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="54"/>
-      <c r="M11" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="N11" s="56"/>
-      <c r="O11" s="13">
-        <v>110</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="54">
-        <v>110</v>
-      </c>
-      <c r="K12" s="54"/>
-      <c r="L12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+        <v>25</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="59">
-        <v>3</v>
-      </c>
-      <c r="L15" s="59"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="56"/>
+      <c r="K15" s="60">
+        <v>4</v>
+      </c>
+      <c r="L15" s="60"/>
       <c r="M15" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="59">
-        <v>4</v>
-      </c>
-      <c r="O15" s="59"/>
+        <v>28</v>
+      </c>
+      <c r="N15" s="60">
+        <v>2</v>
+      </c>
+      <c r="O15" s="60"/>
       <c r="P15" s="50" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="I16" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="F17" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="I17" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="64"/>
+      <c r="K17" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
+      <c r="G18" s="5"/>
+      <c r="I18" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="112"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="12"/>
@@ -1616,13 +1695,15 @@
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1633,66 +1714,76 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="O22" s="23" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="O23" s="22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="58"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1703,13 +1794,13 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="I25" s="5"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1720,13 +1811,15 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
+      <c r="A26" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1737,13 +1830,15 @@
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
+      <c r="A27" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="112"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1754,13 +1849,19 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
+      <c r="A28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1771,13 +1872,13 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1788,13 +1889,15 @@
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1805,13 +1908,15 @@
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="58"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1822,13 +1927,13 @@
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1839,13 +1944,15 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="112"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -1856,13 +1963,15 @@
       <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -1873,13 +1982,19 @@
       <c r="P34" s="20"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -1890,13 +2005,13 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="5"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -1906,14 +2021,16 @@
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
     </row>
-    <row r="37" spans="1:16" customHeight="1" ht="15">
-      <c r="A37" s="7"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="9"/>
+    <row r="37" spans="1:16">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -1923,19 +2040,48 @@
       <c r="O37" s="19"/>
       <c r="P37" s="19"/>
     </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="58"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="F17:G17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -1951,6 +2097,23 @@
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:O15"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1997,54 +2160,54 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
+      <c r="P1" s="75"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="14.4">
       <c r="A2" s="4"/>
-      <c r="B2" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
+      <c r="B2" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="95" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
+      <c r="I2" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="6"/>
-      <c r="I3" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
+      <c r="I3" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4"/>
@@ -2054,16 +2217,16 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="I4" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
+      <c r="I4" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="4"/>
@@ -2073,16 +2236,16 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="I5" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
+      <c r="I5" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
     </row>
     <row r="6" spans="1:16" customHeight="1" ht="15">
       <c r="A6" s="4"/>
@@ -2109,18 +2272,18 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="96" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="99"/>
+      <c r="I7" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4"/>
@@ -2130,15 +2293,15 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="79" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
+      <c r="I8" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
       <c r="N8" s="26" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O8" s="31"/>
       <c r="P8" s="44"/>
@@ -2151,15 +2314,15 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="I9" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="45"/>
@@ -2172,16 +2335,18 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="I10" s="86" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="88"/>
       <c r="M10" s="28"/>
       <c r="N10" s="26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
@@ -2196,13 +2361,15 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="I11" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="88"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="45"/>
@@ -2215,16 +2382,18 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="83"/>
+      <c r="I12" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P12" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
@@ -2239,13 +2408,15 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="83"/>
+      <c r="I13" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="46"/>
@@ -2258,14 +2429,14 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
+      <c r="I14" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
       <c r="O14" s="31"/>
       <c r="P14" s="47"/>
     </row>
@@ -2277,23 +2448,23 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="100">
-        <v>3</v>
-      </c>
-      <c r="J15" s="101"/>
+      <c r="I15" s="96">
+        <v>4</v>
+      </c>
+      <c r="J15" s="97"/>
       <c r="K15" s="33" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="L15" s="34"/>
-      <c r="M15" s="101">
-        <v>330</v>
-      </c>
-      <c r="N15" s="101"/>
+      <c r="M15" s="97">
+        <v>100</v>
+      </c>
+      <c r="N15" s="97"/>
       <c r="O15" s="35" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="P15" s="48">
-        <v>363</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2304,23 +2475,23 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="102">
-        <v>3</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="67">
-        <v>165</v>
-      </c>
-      <c r="N16" s="67"/>
+      <c r="I16" s="98">
+        <v>4</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="99"/>
+      <c r="M16" s="68">
+        <v>50</v>
+      </c>
+      <c r="N16" s="68"/>
       <c r="O16" s="36" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P16" s="49">
-        <v>181.5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2331,16 +2502,16 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="90" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="67">
+      <c r="I17" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="68">
         <v>110</v>
       </c>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="37"/>
       <c r="P17" s="48"/>
     </row>
@@ -2352,14 +2523,14 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="I18" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
-      <c r="N18" s="93"/>
+      <c r="I18" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
       <c r="O18" s="38"/>
       <c r="P18" s="47"/>
     </row>
@@ -2371,18 +2542,18 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="68"/>
+      <c r="I19" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="101"/>
       <c r="N19" s="51">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="P19" s="48" t="str">
         <f>SUM(N19:N21)</f>
@@ -2397,16 +2568,18 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="67"/>
-      <c r="M20" s="68"/>
+      <c r="I20" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="101"/>
       <c r="N20" s="51">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>SUM(N19:N21)/2</f>
@@ -2421,13 +2594,15 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="68"/>
+      <c r="I21" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="101"/>
       <c r="N21" s="51">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="48"/>
@@ -2440,16 +2615,16 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
-      <c r="I22" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="71"/>
+      <c r="I22" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="104"/>
       <c r="O22" s="40" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="P22" s="49" t="str">
         <f>SUM(P10,P15,P19)</f>
@@ -2464,14 +2639,14 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="74"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="107"/>
       <c r="O23" s="41" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>SUM(P12,P16,P20)/2</f>
@@ -2486,20 +2661,18 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
-      <c r="I24" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
+      <c r="I24" s="108" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="104"/>
       <c r="O24" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="P24" s="49">
-        <v>200</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4"/>
@@ -2509,17 +2682,17 @@
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="78"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="111"/>
       <c r="O25" s="41" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P25" s="49">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2530,21 +2703,21 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
-      <c r="I26" s="81" t="s">
-        <v>48</v>
-      </c>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
+      <c r="I26" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="M26" s="58" t="str">
+        <v>51</v>
+      </c>
+      <c r="M26" s="55" t="str">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="83"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="42" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="P26" s="49" t="str">
         <f>P23-P25</f>
@@ -2559,23 +2732,23 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
-      <c r="I27" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="106" t="s">
-        <v>50</v>
-      </c>
-      <c r="K27" s="107"/>
-      <c r="L27" s="106" t="s">
-        <v>51</v>
-      </c>
-      <c r="M27" s="107"/>
-      <c r="N27" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="O27" s="107"/>
-      <c r="P27" s="110" t="s">
-        <v>53</v>
+      <c r="I27" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="K27" s="72"/>
+      <c r="L27" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="M27" s="72"/>
+      <c r="N27" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="O27" s="72"/>
+      <c r="P27" s="66" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">
@@ -2586,14 +2759,14 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="108"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="108"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="108"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="111"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="67"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="4"/>
@@ -2847,20 +3020,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="I5:P5"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
@@ -2877,6 +3036,20 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
     <mergeCell ref="I19:M19"/>
     <mergeCell ref="I20:M20"/>
     <mergeCell ref="I21:M21"/>

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Javna Ustanova Apoteke Sarajevo</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Sarajevo, 22.07.2021</t>
+    <t>Sarajevo, 09.08.2021</t>
   </si>
   <si>
     <t>godine</t>
@@ -57,7 +57,7 @@
     <t>M.P</t>
   </si>
   <si>
-    <t>Hajra Eskić</t>
+    <t>Azemina Bašić</t>
   </si>
   <si>
     <t>(potpis ovlaštenog lica)</t>
@@ -69,7 +69,7 @@
     <t>zvanje - položaj</t>
   </si>
   <si>
-    <t xml:space="preserve">Rukovodilac                                                                                                                                                                                                                                                    </t>
+    <t>Farmaceutski tehničar</t>
   </si>
   <si>
     <t>, sa dnevnicom</t>
@@ -90,7 +90,7 @@
     <t>otputovaće po službenom poslu u mjesto-a</t>
   </si>
   <si>
-    <t>TUZLA, Bosna i Hercegovina</t>
+    <t xml:space="preserve">, </t>
   </si>
   <si>
     <t>radi</t>
@@ -114,13 +114,13 @@
     <t>Prevozna sredstva:</t>
   </si>
   <si>
-    <t>Taxi</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Pravac putovanja</t>
   </si>
   <si>
-    <t>SARAJEVO - TUZLA</t>
+    <t xml:space="preserve"> - </t>
   </si>
   <si>
     <t>3. Potvrđuje se da je</t>
@@ -165,25 +165,10 @@
     <t>Iznos</t>
   </si>
   <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>AUTO2</t>
-  </si>
-  <si>
     <t>KM</t>
   </si>
   <si>
-    <t>AUTO3</t>
-  </si>
-  <si>
-    <t>AUTO4</t>
-  </si>
-  <si>
     <t>EUR</t>
-  </si>
-  <si>
-    <t>AUTO5</t>
   </si>
   <si>
     <t>B) Dnevnice</t>
@@ -1501,9 +1486,7 @@
         <v>18</v>
       </c>
       <c r="N11" s="64"/>
-      <c r="O11" s="13">
-        <v>25</v>
-      </c>
+      <c r="O11" s="13"/>
       <c r="P11" s="24" t="s">
         <v>19</v>
       </c>
@@ -1521,9 +1504,7 @@
       <c r="I12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="53">
-        <v>25</v>
-      </c>
+      <c r="J12" s="53"/>
       <c r="K12" s="53"/>
       <c r="L12" s="12" t="s">
         <v>22</v>
@@ -1596,14 +1577,14 @@
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="60"/>
       <c r="M15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" s="60"/>
       <c r="P15" s="50" t="s">
@@ -2314,15 +2295,13 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="86" t="s">
-        <v>49</v>
-      </c>
+      <c r="I9" s="86"/>
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="88"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="45"/>
@@ -2335,18 +2314,16 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="86" t="s">
-        <v>50</v>
-      </c>
+      <c r="I10" s="86"/>
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
       <c r="L10" s="88"/>
       <c r="M10" s="28"/>
       <c r="N10" s="26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
@@ -2361,15 +2338,13 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="86" t="s">
-        <v>52</v>
-      </c>
+      <c r="I11" s="86"/>
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
       <c r="L11" s="88"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="45"/>
@@ -2382,18 +2357,16 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="89" t="s">
-        <v>53</v>
-      </c>
+      <c r="I12" s="89"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
       <c r="L12" s="85"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P12" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
@@ -2408,15 +2381,13 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="89" t="s">
-        <v>55</v>
-      </c>
+      <c r="I13" s="89"/>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
       <c r="L13" s="85"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="46"/>
@@ -2430,7 +2401,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="90" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
@@ -2449,22 +2420,22 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="96">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="97">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="97"/>
       <c r="O15" s="35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P15" s="48">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2476,22 +2447,22 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="I16" s="98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="99" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="68">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N16" s="68"/>
       <c r="O16" s="36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P16" s="49">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2503,7 +2474,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="I17" s="92" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
@@ -2524,7 +2495,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="I18" s="94" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -2542,18 +2513,16 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="100" t="s">
-        <v>49</v>
-      </c>
+      <c r="I19" s="100"/>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
       <c r="M19" s="101"/>
       <c r="N19" s="51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P19" s="48" t="str">
         <f>SUM(N19:N21)</f>
@@ -2568,18 +2537,16 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="100" t="s">
-        <v>50</v>
-      </c>
+      <c r="I20" s="100"/>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
       <c r="M20" s="101"/>
       <c r="N20" s="51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>SUM(N19:N21)/2</f>
@@ -2594,15 +2561,13 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="100" t="s">
-        <v>52</v>
-      </c>
+      <c r="I21" s="100"/>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
       <c r="M21" s="101"/>
       <c r="N21" s="51">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="48"/>
@@ -2616,7 +2581,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="I22" s="102" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J22" s="103"/>
       <c r="K22" s="103"/>
@@ -2624,7 +2589,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="104"/>
       <c r="O22" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P22" s="49" t="str">
         <f>SUM(P10,P15,P19)</f>
@@ -2646,7 +2611,7 @@
       <c r="M23" s="106"/>
       <c r="N23" s="107"/>
       <c r="O23" s="41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>SUM(P12,P16,P20)/2</f>
@@ -2662,7 +2627,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="I24" s="108" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J24" s="103"/>
       <c r="K24" s="103"/>
@@ -2670,7 +2635,7 @@
       <c r="M24" s="103"/>
       <c r="N24" s="104"/>
       <c r="O24" s="40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P24" s="49"/>
     </row>
@@ -2689,7 +2654,7 @@
       <c r="M25" s="110"/>
       <c r="N25" s="111"/>
       <c r="O25" s="41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P25" s="49">
         <v>0</v>
@@ -2704,12 +2669,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="I26" s="83" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
       <c r="L26" s="43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M26" s="55" t="str">
         <f>P22-P24</f>
@@ -2717,7 +2682,7 @@
       </c>
       <c r="N26" s="85"/>
       <c r="O26" s="42" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P26" s="49" t="str">
         <f>P23-P25</f>
@@ -2733,22 +2698,22 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="I27" s="69" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="71" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M27" s="72"/>
       <c r="N27" s="71" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="O27" s="72"/>
       <c r="P27" s="66" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -33,7 +33,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Sarajevo, 09.08.2021</t>
+    <t>Sarajevo, 10.08.2021</t>
   </si>
   <si>
     <t>godine</t>

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -33,7 +33,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Sarajevo, 10.08.2021</t>
+    <t>Sarajevo, 12.08.2021</t>
   </si>
   <si>
     <t>godine</t>
@@ -57,7 +57,7 @@
     <t>M.P</t>
   </si>
   <si>
-    <t>Azemina Bašić</t>
+    <t>Nihad Mujagić</t>
   </si>
   <si>
     <t>(potpis ovlaštenog lica)</t>
@@ -69,7 +69,7 @@
     <t>zvanje - položaj</t>
   </si>
   <si>
-    <t>Farmaceutski tehničar</t>
+    <t>Vozač</t>
   </si>
   <si>
     <t>, sa dnevnicom</t>
@@ -90,7 +90,7 @@
     <t>otputovaće po službenom poslu u mjesto-a</t>
   </si>
   <si>
-    <t xml:space="preserve">, </t>
+    <t>TUZLA, Bosna i Hercegovina</t>
   </si>
   <si>
     <t>radi</t>
@@ -114,13 +114,13 @@
     <t>Prevozna sredstva:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Privatni automobil</t>
   </si>
   <si>
     <t>Pravac putovanja</t>
   </si>
   <si>
-    <t xml:space="preserve"> - </t>
+    <t>SARAJEVO - TUZLA</t>
   </si>
   <si>
     <t>3. Potvrđuje se da je</t>
@@ -1486,7 +1486,9 @@
         <v>18</v>
       </c>
       <c r="N11" s="64"/>
-      <c r="O11" s="13"/>
+      <c r="O11" s="13">
+        <v>25</v>
+      </c>
       <c r="P11" s="24" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1506,9 @@
       <c r="I12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="53">
+        <v>25</v>
+      </c>
       <c r="K12" s="53"/>
       <c r="L12" s="12" t="s">
         <v>22</v>
@@ -1584,7 +1588,7 @@
         <v>28</v>
       </c>
       <c r="N15" s="60">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O15" s="60"/>
       <c r="P15" s="50" t="s">
@@ -2420,7 +2424,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="33" t="s">
@@ -2428,14 +2432,14 @@
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="97">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="N15" s="97"/>
       <c r="O15" s="35" t="s">
         <v>49</v>
       </c>
       <c r="P15" s="48">
-        <v>0</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2447,7 +2451,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="I16" s="98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="99" t="s">
@@ -2455,14 +2459,14 @@
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="68">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="N16" s="68"/>
       <c r="O16" s="36" t="s">
         <v>50</v>
       </c>
       <c r="P16" s="49">
-        <v>0</v>
+        <v>6.875</v>
       </c>
     </row>
     <row r="17" spans="1:16">

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Javna Ustanova Apoteke Sarajevo</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Sarajevo, 12.08.2021</t>
+    <t>Sarajevo, 13.08.2021</t>
   </si>
   <si>
     <t>godine</t>
@@ -57,7 +57,7 @@
     <t>M.P</t>
   </si>
   <si>
-    <t>Nihad Mujagić</t>
+    <t>Haris Hot</t>
   </si>
   <si>
     <t>(potpis ovlaštenog lica)</t>
@@ -69,7 +69,7 @@
     <t>zvanje - položaj</t>
   </si>
   <si>
-    <t>Vozač</t>
+    <t>Rukovodilac službe za informacione tehnologije</t>
   </si>
   <si>
     <t>, sa dnevnicom</t>
@@ -90,7 +90,7 @@
     <t>otputovaće po službenom poslu u mjesto-a</t>
   </si>
   <si>
-    <t>TUZLA, Bosna i Hercegovina</t>
+    <t>BEOGRAD, Austrija</t>
   </si>
   <si>
     <t>radi</t>
@@ -114,13 +114,13 @@
     <t>Prevozna sredstva:</t>
   </si>
   <si>
-    <t>Privatni automobil</t>
+    <t>Službeno vozilo</t>
   </si>
   <si>
     <t>Pravac putovanja</t>
   </si>
   <si>
-    <t>SARAJEVO - TUZLA</t>
+    <t>SARAJEVO - BEOGRAD</t>
   </si>
   <si>
     <t>3. Potvrđuje se da je</t>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Iznos</t>
+  </si>
+  <si>
+    <t>GORIVO</t>
   </si>
   <si>
     <t>KM</t>
@@ -1487,7 +1490,7 @@
       </c>
       <c r="N11" s="64"/>
       <c r="O11" s="13">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>19</v>
@@ -1507,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="53">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="12" t="s">
@@ -1581,14 +1584,14 @@
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="60">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L15" s="60"/>
       <c r="M15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O15" s="60"/>
       <c r="P15" s="50" t="s">
@@ -2299,13 +2302,15 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="86"/>
+      <c r="I9" s="86" t="s">
+        <v>49</v>
+      </c>
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
       <c r="L9" s="88"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="45"/>
@@ -2327,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
@@ -2370,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P12" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
@@ -2405,7 +2410,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="90" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
@@ -2424,22 +2429,22 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="96">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="97">
-        <v>12.5</v>
+        <v>540</v>
       </c>
       <c r="N15" s="97"/>
       <c r="O15" s="35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P15" s="48">
-        <v>13.75</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2451,22 +2456,22 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="I16" s="98">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="68">
-        <v>6.25</v>
+        <v>270</v>
       </c>
       <c r="N16" s="68"/>
       <c r="O16" s="36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P16" s="49">
-        <v>6.875</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2478,12 +2483,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="I17" s="92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="68">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
@@ -2499,7 +2504,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="I18" s="94" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -2517,16 +2522,18 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="100"/>
+      <c r="I19" s="100" t="s">
+        <v>49</v>
+      </c>
       <c r="J19" s="68"/>
       <c r="K19" s="68"/>
       <c r="L19" s="68"/>
       <c r="M19" s="101"/>
       <c r="N19" s="51">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="48" t="str">
         <f>SUM(N19:N21)</f>
@@ -2550,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>SUM(N19:N21)/2</f>
@@ -2585,7 +2592,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="I22" s="102" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J22" s="103"/>
       <c r="K22" s="103"/>
@@ -2593,7 +2600,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="104"/>
       <c r="O22" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P22" s="49" t="str">
         <f>SUM(P10,P15,P19)</f>
@@ -2615,7 +2622,7 @@
       <c r="M23" s="106"/>
       <c r="N23" s="107"/>
       <c r="O23" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>SUM(P12,P16,P20)/2</f>
@@ -2631,7 +2638,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="I24" s="108" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J24" s="103"/>
       <c r="K24" s="103"/>
@@ -2639,9 +2646,11 @@
       <c r="M24" s="103"/>
       <c r="N24" s="104"/>
       <c r="O24" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="P24" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="P24" s="49">
+        <v>800</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4"/>
@@ -2658,10 +2667,10 @@
       <c r="M25" s="110"/>
       <c r="N25" s="111"/>
       <c r="O25" s="41" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P25" s="49">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2673,12 +2682,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="I26" s="83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
       <c r="L26" s="43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M26" s="55" t="str">
         <f>P22-P24</f>
@@ -2686,7 +2695,7 @@
       </c>
       <c r="N26" s="85"/>
       <c r="O26" s="42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P26" s="49" t="str">
         <f>P23-P25</f>
@@ -2702,22 +2711,22 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="I27" s="69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27" s="72"/>
       <c r="N27" s="71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O27" s="72"/>
       <c r="P27" s="66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Javna Ustanova Apoteke Sarajevo</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>Sarajevo, 13.08.2021</t>
+    <t>Sarajevo, 08.09.2021</t>
   </si>
   <si>
     <t>godine</t>
@@ -57,7 +57,7 @@
     <t>M.P</t>
   </si>
   <si>
-    <t>Haris Hot</t>
+    <t>Lejla Hodžić</t>
   </si>
   <si>
     <t>(potpis ovlaštenog lica)</t>
@@ -69,7 +69,7 @@
     <t>zvanje - položaj</t>
   </si>
   <si>
-    <t>Rukovodilac službe za informacione tehnologije</t>
+    <t>Pomoćnik rukovodioca Službe za prodaju</t>
   </si>
   <si>
     <t>, sa dnevnicom</t>
@@ -90,7 +90,7 @@
     <t>otputovaće po službenom poslu u mjesto-a</t>
   </si>
   <si>
-    <t>BEOGRAD, Austrija</t>
+    <t>TU, Bosna i Hercegovina</t>
   </si>
   <si>
     <t>radi</t>
@@ -114,13 +114,13 @@
     <t>Prevozna sredstva:</t>
   </si>
   <si>
-    <t>Službeno vozilo</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Pravac putovanja</t>
   </si>
   <si>
-    <t>SARAJEVO - BEOGRAD</t>
+    <t>SA - TU</t>
   </si>
   <si>
     <t>3. Potvrđuje se da je</t>
@@ -165,13 +165,25 @@
     <t>Iznos</t>
   </si>
   <si>
-    <t>GORIVO</t>
+    <t>Službeno vozilo sa vozacem</t>
+  </si>
+  <si>
+    <t>Avion</t>
   </si>
   <si>
     <t>KM</t>
   </si>
   <si>
+    <t>Privatni automobil</t>
+  </si>
+  <si>
+    <t>Voz</t>
+  </si>
+  <si>
     <t>EUR</t>
+  </si>
+  <si>
+    <t>Saputnik</t>
   </si>
   <si>
     <t>B) Dnevnice</t>
@@ -1490,7 +1502,7 @@
       </c>
       <c r="N11" s="64"/>
       <c r="O11" s="13">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="P11" s="24" t="s">
         <v>19</v>
@@ -1510,7 +1522,7 @@
         <v>21</v>
       </c>
       <c r="J12" s="53">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="K12" s="53"/>
       <c r="L12" s="12" t="s">
@@ -1584,14 +1596,14 @@
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="60">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L15" s="60"/>
       <c r="M15" s="50" t="s">
         <v>28</v>
       </c>
       <c r="N15" s="60">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O15" s="60"/>
       <c r="P15" s="50" t="s">
@@ -2310,7 +2322,7 @@
       <c r="L9" s="88"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="45"/>
@@ -2323,7 +2335,9 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="86" t="s">
+        <v>50</v>
+      </c>
       <c r="J10" s="87"/>
       <c r="K10" s="87"/>
       <c r="L10" s="88"/>
@@ -2332,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
@@ -2347,7 +2361,9 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="86"/>
+      <c r="I11" s="86" t="s">
+        <v>52</v>
+      </c>
       <c r="J11" s="87"/>
       <c r="K11" s="87"/>
       <c r="L11" s="88"/>
@@ -2366,7 +2382,9 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="89"/>
+      <c r="I12" s="89" t="s">
+        <v>53</v>
+      </c>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
       <c r="L12" s="85"/>
@@ -2375,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P12" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
@@ -2390,7 +2408,9 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="89"/>
+      <c r="I13" s="89" t="s">
+        <v>55</v>
+      </c>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
       <c r="L13" s="85"/>
@@ -2410,7 +2430,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="90" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="91"/>
@@ -2429,22 +2449,22 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="I15" s="96">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="J15" s="97"/>
       <c r="K15" s="33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="L15" s="34"/>
       <c r="M15" s="97">
-        <v>540</v>
+        <v>25</v>
       </c>
       <c r="N15" s="97"/>
       <c r="O15" s="35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="48">
-        <v>432</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2456,22 +2476,22 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="I16" s="98">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="J16" s="60"/>
       <c r="K16" s="99" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L16" s="99"/>
       <c r="M16" s="68">
-        <v>270</v>
+        <v>12.5</v>
       </c>
       <c r="N16" s="68"/>
       <c r="O16" s="36" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P16" s="49">
-        <v>216</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2483,12 +2503,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
       <c r="I17" s="92" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="93"/>
       <c r="L17" s="68">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M17" s="68"/>
       <c r="N17" s="68"/>
@@ -2504,7 +2524,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
       <c r="I18" s="94" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -2530,10 +2550,10 @@
       <c r="L19" s="68"/>
       <c r="M19" s="101"/>
       <c r="N19" s="51">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P19" s="48" t="str">
         <f>SUM(N19:N21)</f>
@@ -2548,7 +2568,9 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="100"/>
+      <c r="I20" s="100" t="s">
+        <v>50</v>
+      </c>
       <c r="J20" s="68"/>
       <c r="K20" s="68"/>
       <c r="L20" s="68"/>
@@ -2557,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>SUM(N19:N21)/2</f>
@@ -2572,7 +2594,9 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="100"/>
+      <c r="I21" s="100" t="s">
+        <v>52</v>
+      </c>
       <c r="J21" s="68"/>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
@@ -2592,7 +2616,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="I22" s="102" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J22" s="103"/>
       <c r="K22" s="103"/>
@@ -2600,7 +2624,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="104"/>
       <c r="O22" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P22" s="49" t="str">
         <f>SUM(P10,P15,P19)</f>
@@ -2622,7 +2646,7 @@
       <c r="M23" s="106"/>
       <c r="N23" s="107"/>
       <c r="O23" s="41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>SUM(P12,P16,P20)/2</f>
@@ -2638,7 +2662,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="I24" s="108" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J24" s="103"/>
       <c r="K24" s="103"/>
@@ -2646,11 +2670,9 @@
       <c r="M24" s="103"/>
       <c r="N24" s="104"/>
       <c r="O24" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="P24" s="49">
-        <v>800</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="4"/>
@@ -2667,10 +2689,10 @@
       <c r="M25" s="110"/>
       <c r="N25" s="111"/>
       <c r="O25" s="41" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P25" s="49">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2682,12 +2704,12 @@
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="I26" s="83" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J26" s="84"/>
       <c r="K26" s="84"/>
       <c r="L26" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M26" s="55" t="str">
         <f>P22-P24</f>
@@ -2695,7 +2717,7 @@
       </c>
       <c r="N26" s="85"/>
       <c r="O26" s="42" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P26" s="49" t="str">
         <f>P23-P25</f>
@@ -2711,22 +2733,22 @@
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="I27" s="69" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J27" s="71" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K27" s="72"/>
       <c r="L27" s="71" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="M27" s="72"/>
       <c r="N27" s="71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O27" s="72"/>
       <c r="P27" s="66" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,32 +16,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Javna Ustanova Apoteke Sarajevo</t>
   </si>
   <si>
+    <t>IZVJEŠTAJ 
+o izvršenom putovanju</t>
+  </si>
+  <si>
+    <t>(preduzeće-organizacija)</t>
+  </si>
+  <si>
+    <t>Broj</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>08.09.2021</t>
+  </si>
+  <si>
+    <t>godine</t>
+  </si>
+  <si>
+    <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
+  </si>
+  <si>
+    <t>Lejla Hodžić</t>
+  </si>
+  <si>
+    <t>(ime i prezime)</t>
+  </si>
+  <si>
+    <t>zvanje - položaj</t>
+  </si>
+  <si>
+    <t>Pomoćnik rukovodioca Službe za prodaju</t>
+  </si>
+  <si>
+    <t>, sa dnevnicom</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>vrste</t>
+  </si>
+  <si>
+    <t>u iznosu</t>
+  </si>
+  <si>
+    <t>KM,</t>
+  </si>
+  <si>
+    <t>otputovaće po službenom poslu u mjesto-a</t>
+  </si>
+  <si>
+    <t>TU, Bosna i Hercegovina</t>
+  </si>
+  <si>
+    <t>radi</t>
+  </si>
+  <si>
+    <t>Edukacija/trening</t>
+  </si>
+  <si>
+    <t>Putovanje će trajati</t>
+  </si>
+  <si>
+    <t>dana</t>
+  </si>
+  <si>
+    <t>sati</t>
+  </si>
+  <si>
+    <t>Troškovi putovanja padaju na teret</t>
+  </si>
+  <si>
+    <t>Prevozna sredstva:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Pravac putovanja</t>
+  </si>
+  <si>
+    <t>SA - TU</t>
+  </si>
+  <si>
+    <t>(direktor)</t>
+  </si>
+  <si>
+    <t>M.P.</t>
+  </si>
+  <si>
+    <t>(potpis podnosioca izvještaja)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
     <t>POTVRDA O IZVRŠENJU NALOGA</t>
   </si>
   <si>
-    <t>(preduzeće-organizacija)</t>
-  </si>
-  <si>
-    <t>Broj</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Sarajevo, 08.09.2021</t>
-  </si>
-  <si>
-    <t>godine</t>
+    <t>Obračun troškova putovanja</t>
+  </si>
+  <si>
+    <t>Na put sam krenuo-la</t>
+  </si>
+  <si>
+    <t>13.09.2021</t>
+  </si>
+  <si>
+    <t>god. u</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vratio -la sam se dana </t>
+  </si>
+  <si>
+    <t>14.09.2021</t>
+  </si>
+  <si>
+    <t>18:00</t>
   </si>
   <si>
     <t>1. Potvrđuje se da je</t>
   </si>
   <si>
+    <t>Na putu sam proveo-la</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dana i </t>
+  </si>
+  <si>
     <t>boravio-la u vezi sa prednjim putnim nalogom u ovom preduzeću - organu</t>
   </si>
   <si>
@@ -51,178 +163,103 @@
     <t>do</t>
   </si>
   <si>
-    <t>NALOG ZA SLUŽBENO PUTOVANJE</t>
+    <t>A) Troškovi prevoza</t>
+  </si>
+  <si>
+    <t>Ukupno</t>
+  </si>
+  <si>
+    <t>Relacija</t>
+  </si>
+  <si>
+    <t>Iznos</t>
   </si>
   <si>
     <t>M.P</t>
   </si>
   <si>
-    <t>Lejla Hodžić</t>
+    <t>Službeno vozilo sa vozacem</t>
   </si>
   <si>
     <t>(potpis ovlaštenog lica)</t>
   </si>
   <si>
-    <t>(ime i prezime)</t>
-  </si>
-  <si>
-    <t>zvanje - položaj</t>
-  </si>
-  <si>
-    <t>Pomoćnik rukovodioca Službe za prodaju</t>
-  </si>
-  <si>
-    <t>, sa dnevnicom</t>
-  </si>
-  <si>
-    <t>vrste</t>
+    <t>Avion</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Privatni automobil</t>
   </si>
   <si>
     <t>2. Potvrđuje se da je</t>
   </si>
   <si>
-    <t>u iznosu</t>
-  </si>
-  <si>
-    <t>KM,</t>
-  </si>
-  <si>
-    <t>otputovaće po službenom poslu u mjesto-a</t>
-  </si>
-  <si>
-    <t>TU, Bosna i Hercegovina</t>
-  </si>
-  <si>
-    <t>radi</t>
-  </si>
-  <si>
-    <t>Edukacija/trening</t>
-  </si>
-  <si>
-    <t>Putovanje će trajati</t>
-  </si>
-  <si>
-    <t>dana</t>
-  </si>
-  <si>
-    <t>sati</t>
-  </si>
-  <si>
-    <t>Troškovi putovanja padaju na teret</t>
-  </si>
-  <si>
-    <t>Prevozna sredstva:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Pravac putovanja</t>
-  </si>
-  <si>
-    <t>SA - TU</t>
+    <t>Voz</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Saputnik</t>
+  </si>
+  <si>
+    <t>B) Dnevnice</t>
+  </si>
+  <si>
+    <t>dnevnice po KM</t>
+  </si>
+  <si>
+    <t>dnevnice po EUR</t>
+  </si>
+  <si>
+    <t>% dodatak na dnevnice</t>
+  </si>
+  <si>
+    <t>C) Ostali izdaci (uz dokumentacij)</t>
   </si>
   <si>
     <t>3. Potvrđuje se da je</t>
   </si>
   <si>
-    <t>(direktor)</t>
-  </si>
-  <si>
-    <t>M.P.</t>
+    <t>RUCAK</t>
+  </si>
+  <si>
+    <t>PLJUGE</t>
+  </si>
+  <si>
+    <t>BAZEN</t>
+  </si>
+  <si>
+    <t>D) Ukupni troškovi putovanja</t>
+  </si>
+  <si>
+    <t>E) Primljena akontacija</t>
   </si>
   <si>
     <t>4. Potvrđuje se da je</t>
   </si>
   <si>
+    <t>F) Ostaje za isplatu-povrat</t>
+  </si>
+  <si>
+    <t>Isplatio:</t>
+  </si>
+  <si>
+    <t>Odobrio:</t>
+  </si>
+  <si>
+    <t>Likvidirao:</t>
+  </si>
+  <si>
+    <t>Obračunao:</t>
+  </si>
+  <si>
+    <t>Primio:</t>
+  </si>
+  <si>
     <t>5. Potvrđuje se da je</t>
-  </si>
-  <si>
-    <t>IZVJEŠTAJ O SLUŽBENOM PUTOVANJU</t>
-  </si>
-  <si>
-    <t>OBRAČUN TROŠKOVA PUTOVANJA</t>
-  </si>
-  <si>
-    <t>Na put sam krenuo-la    ______________________ god, u______________sati</t>
-  </si>
-  <si>
-    <t>Vratio -la sam se dana   ______________________ god, u______________sati</t>
-  </si>
-  <si>
-    <t>Na putu sam proveo-la _______________________ god, u______________sati</t>
-  </si>
-  <si>
-    <t>A) Troškovi prevoza</t>
-  </si>
-  <si>
-    <t>Ukupno</t>
-  </si>
-  <si>
-    <t>Relacija</t>
-  </si>
-  <si>
-    <t>Iznos</t>
-  </si>
-  <si>
-    <t>Službeno vozilo sa vozacem</t>
-  </si>
-  <si>
-    <t>Avion</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Privatni automobil</t>
-  </si>
-  <si>
-    <t>Voz</t>
-  </si>
-  <si>
-    <t>EUR</t>
-  </si>
-  <si>
-    <t>Saputnik</t>
-  </si>
-  <si>
-    <t>B) Dnevnice</t>
-  </si>
-  <si>
-    <t>dnevnice po KM</t>
-  </si>
-  <si>
-    <t>dnevnice po EUR</t>
-  </si>
-  <si>
-    <t>% dodatak na dnevnice</t>
-  </si>
-  <si>
-    <t>C) Ostali izdaci (uz dokumentacij)</t>
-  </si>
-  <si>
-    <t>D) Ukupni troškovi putovanja</t>
-  </si>
-  <si>
-    <t>E) Primljena akontacija</t>
-  </si>
-  <si>
-    <t>F) Ostaje za isplatu-povrat</t>
-  </si>
-  <si>
-    <t>Isplatio:</t>
-  </si>
-  <si>
-    <t>Odobrio:</t>
-  </si>
-  <si>
-    <t>Likvidirao:</t>
-  </si>
-  <si>
-    <t>Obračunao:</t>
-  </si>
-  <si>
-    <t>Primio:</t>
   </si>
 </sst>
 </file>
@@ -446,6 +483,100 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -510,100 +641,6 @@
         <color rgb="FF000000"/>
       </right>
       <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -624,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="120">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -781,188 +818,209 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="33" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="28" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="16" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="14" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="13" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,10 +1322,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,79 +1336,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="57" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="5"/>
-      <c r="B2" s="52" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="5"/>
-      <c r="I2" s="58" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="6"/>
+      <c r="I2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="5"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="6"/>
       <c r="I3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="5"/>
+      <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="I4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="60" t="s">
+      <c r="J4" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="60"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1360,15 +1418,13 @@
       <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="112" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
@@ -1379,15 +1435,13 @@
       <c r="P5" s="11"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
       <c r="K6" s="17"/>
@@ -1398,38 +1452,32 @@
       <c r="P6" s="15"/>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="18">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A8" s="5"/>
+      <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="6"/>
       <c r="I8" s="18"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -1440,251 +1488,231 @@
       <c r="P8" s="12"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="5"/>
+      <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="I9" s="53" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="I9" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="58"/>
-      <c r="I10" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="I10" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="5"/>
+      <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="I11" s="64" t="s">
+      <c r="G11" s="6"/>
+      <c r="I11" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="59"/>
+      <c r="K11" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="57"/>
+      <c r="M11" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="59"/>
+      <c r="O11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="I12" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="57">
+        <v>25</v>
+      </c>
+      <c r="K12" s="57"/>
+      <c r="L12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="53" t="s">
+      <c r="M12" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="53"/>
-      <c r="M11" s="64" t="s">
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="13">
-        <v>25</v>
-      </c>
-      <c r="P11" s="24" t="s">
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="I14" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="112" t="s">
+      <c r="J14" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="I12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="53">
-        <v>25</v>
-      </c>
-      <c r="K12" s="53"/>
-      <c r="L12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="I13" s="54" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="I15" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="60">
-        <v>0</v>
-      </c>
-      <c r="L15" s="60"/>
+      <c r="G15" s="6"/>
+      <c r="I15" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="62">
+        <v>1</v>
+      </c>
+      <c r="L15" s="62"/>
       <c r="M15" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="60">
-        <v>15</v>
-      </c>
-      <c r="O15" s="60"/>
+        <v>22</v>
+      </c>
+      <c r="N15" s="62">
+        <v>10</v>
+      </c>
+      <c r="O15" s="62"/>
       <c r="P15" s="50" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="I16" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+      <c r="I16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="5"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="58"/>
-      <c r="I17" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6"/>
+      <c r="I17" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="59"/>
+      <c r="K17" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="5"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
+      <c r="G18" s="6"/>
+      <c r="I18" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="55"/>
+      <c r="K18" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="12"/>
@@ -1695,15 +1723,13 @@
       <c r="P19" s="12"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -1714,76 +1740,66 @@
       <c r="P20" s="12"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="5"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="O22" s="23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="O23" s="22" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="P23" s="5"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" s="58"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1794,13 +1810,13 @@
       <c r="P24" s="12"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="6"/>
       <c r="I25" s="5"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -1811,15 +1827,13 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="112" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
@@ -1830,15 +1844,13 @@
       <c r="P26" s="12"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="112"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
@@ -1849,19 +1861,13 @@
       <c r="P27" s="5"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1872,13 +1878,13 @@
       <c r="P28" s="5"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
+      <c r="G29" s="6"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
@@ -1889,15 +1895,13 @@
       <c r="P29" s="12"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="5"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1908,15 +1912,13 @@
       <c r="P30" s="12"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="5"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="58"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -1927,13 +1929,13 @@
       <c r="P31" s="19"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="5"/>
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="G32" s="6"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -1944,15 +1946,13 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A33" s="112" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
@@ -1963,15 +1963,13 @@
       <c r="P33" s="20"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
@@ -1982,19 +1980,13 @@
       <c r="P34" s="20"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="6"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2005,13 +1997,13 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="5"/>
+      <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="G36" s="6"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -2022,15 +2014,13 @@
       <c r="P36" s="12"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="5"/>
+      <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="6"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -2041,47 +2031,390 @@
       <c r="P37" s="19"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="5"/>
+      <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" s="58"/>
+      <c r="D38" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="114"/>
+    </row>
+    <row r="39" spans="1:16" customHeight="1" ht="15">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="5"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="5"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="I7:P7"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -2097,23 +2430,6 @@
     <mergeCell ref="K17:P17"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="I7:P7"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2138,7 +2454,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2153,108 +2469,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="I1" s="116" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="18"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="6"/>
-      <c r="I2" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="6"/>
-      <c r="I3" s="64" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="5"/>
+      <c r="I3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="57"/>
+      <c r="N3" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="I4" s="64" t="s">
+      <c r="G4" s="5"/>
+      <c r="I4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="61"/>
+      <c r="N4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="119" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="I5" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="64" t="s">
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="61">
+        <v>1</v>
+      </c>
+      <c r="M5" s="61"/>
+      <c r="N5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
+      <c r="O5" s="119">
+        <v>10</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:16" customHeight="1" ht="15">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -2265,88 +2613,98 @@
       <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="79" t="s">
+      <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="80"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="91"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="I8" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
       <c r="N8" s="26" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O8" s="31"/>
       <c r="P8" s="44"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="I9" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="88"/>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="I9" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="28"/>
       <c r="N9" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="45"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="86" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="88"/>
+      <c r="F10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="I10" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
       <c r="M10" s="28"/>
       <c r="N10" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P10" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
@@ -2354,46 +2712,48 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="4"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="88"/>
+      <c r="G11" s="5"/>
+      <c r="I11" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="74"/>
       <c r="M11" s="27"/>
       <c r="N11" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" s="25"/>
       <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="I12" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="85"/>
+      <c r="A12" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="I12" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="71"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O12" s="25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P12" s="46" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
@@ -2401,159 +2761,173 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
-      <c r="I13" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="85"/>
+      <c r="A13" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="I13" s="75" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="71"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O13" s="32"/>
       <c r="P13" s="46"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="I14" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="31"/>
       <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4"/>
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
-      <c r="I15" s="96">
-        <v>1</v>
-      </c>
-      <c r="J15" s="97"/>
+      <c r="G15" s="5"/>
+      <c r="I15" s="83">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="84"/>
       <c r="K15" s="33" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L15" s="34"/>
-      <c r="M15" s="97">
-        <v>25</v>
-      </c>
-      <c r="N15" s="97"/>
+      <c r="M15" s="84">
+        <v>37.5</v>
+      </c>
+      <c r="N15" s="84"/>
       <c r="O15" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P15" s="48">
-        <v>22.5</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="4"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="I16" s="98">
-        <v>1</v>
-      </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="99" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="99"/>
-      <c r="M16" s="68">
-        <v>12.5</v>
-      </c>
-      <c r="N16" s="68"/>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="I16" s="85">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="62"/>
+      <c r="K16" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" s="86"/>
+      <c r="M16" s="80">
+        <v>18.75</v>
+      </c>
+      <c r="N16" s="80"/>
       <c r="O16" s="36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P16" s="49">
-        <v>11.25</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="4"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="I17" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="68">
+      <c r="F17" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="53"/>
+      <c r="I17" s="78" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80">
         <v>90</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
       <c r="O17" s="37"/>
       <c r="P17" s="48"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4"/>
+      <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="I18" s="94" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
+      <c r="G18" s="5"/>
+      <c r="I18" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
       <c r="O18" s="38"/>
       <c r="P18" s="47"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
+      <c r="A19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
       <c r="I19" s="100" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
+        <v>68</v>
+      </c>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
       <c r="M19" s="101"/>
       <c r="N19" s="51">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P19" s="48" t="str">
         <f>SUM(N19:N21)</f>
@@ -2561,25 +2935,27 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
+      <c r="A20" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
       <c r="I20" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
+        <v>69</v>
+      </c>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="101"/>
       <c r="N20" s="51">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P20" s="49" t="str">
         <f>SUM(N19:N21)/2</f>
@@ -2587,36 +2963,42 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
+      <c r="A21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I21" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
+        <v>70</v>
+      </c>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
       <c r="M21" s="101"/>
       <c r="N21" s="51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O21" s="37"/>
       <c r="P21" s="48"/>
     </row>
     <row r="22" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A22" s="4"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
+      <c r="G22" s="5"/>
       <c r="I22" s="102" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="J22" s="103"/>
       <c r="K22" s="103"/>
@@ -2624,7 +3006,7 @@
       <c r="M22" s="103"/>
       <c r="N22" s="104"/>
       <c r="O22" s="40" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="P22" s="49" t="str">
         <f>SUM(P10,P15,P19)</f>
@@ -2632,13 +3014,15 @@
       </c>
     </row>
     <row r="23" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A23" s="4"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
       <c r="I23" s="105"/>
       <c r="J23" s="106"/>
       <c r="K23" s="106"/>
@@ -2646,7 +3030,7 @@
       <c r="M23" s="106"/>
       <c r="N23" s="107"/>
       <c r="O23" s="41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P23" s="49" t="str">
         <f>SUM(P12,P16,P20)/2</f>
@@ -2654,15 +3038,17 @@
       </c>
     </row>
     <row r="24" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A24" s="4"/>
+      <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="F24" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="53"/>
       <c r="I24" s="108" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="J24" s="103"/>
       <c r="K24" s="103"/>
@@ -2670,18 +3056,20 @@
       <c r="M24" s="103"/>
       <c r="N24" s="104"/>
       <c r="O24" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="P24" s="49"/>
+        <v>56</v>
+      </c>
+      <c r="P24" s="49">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="4"/>
+      <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
+      <c r="G25" s="5"/>
       <c r="I25" s="109"/>
       <c r="J25" s="110"/>
       <c r="K25" s="110"/>
@@ -2689,35 +3077,37 @@
       <c r="M25" s="110"/>
       <c r="N25" s="111"/>
       <c r="O25" s="41" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P25" s="49">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="I26" s="83" t="s">
-        <v>63</v>
-      </c>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
+      <c r="A26" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="I26" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="M26" s="55" t="str">
+        <v>56</v>
+      </c>
+      <c r="M26" s="61" t="str">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="85"/>
+      <c r="N26" s="71"/>
       <c r="O26" s="42" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P26" s="49" t="str">
         <f>P23-P25</f>
@@ -2725,57 +3115,65 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="I27" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="72"/>
-      <c r="L27" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="M27" s="72"/>
-      <c r="N27" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="O27" s="72"/>
-      <c r="P27" s="66" t="s">
-        <v>68</v>
+      <c r="A27" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="I27" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="97"/>
+      <c r="L27" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="M27" s="97"/>
+      <c r="N27" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="O27" s="97"/>
+      <c r="P27" s="92" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="73"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="67"/>
+      <c r="A28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="95"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="93"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="4"/>
+      <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
+      <c r="G29" s="5"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
@@ -2786,13 +3184,15 @@
       <c r="P29" s="21"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="4"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -2803,13 +3203,15 @@
       <c r="P30" s="21"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="4"/>
+      <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="53"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
@@ -2820,13 +3222,13 @@
       <c r="P31" s="21"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="4"/>
+      <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
+      <c r="G32" s="5"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -2837,13 +3239,15 @@
       <c r="P32" s="5"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
+      <c r="A33" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
@@ -2854,13 +3258,15 @@
       <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
+      <c r="A34" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
       <c r="I34" s="29"/>
       <c r="J34" s="12"/>
       <c r="K34" s="12"/>
@@ -2871,13 +3277,19 @@
       <c r="P34" s="5"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6"/>
+      <c r="A35" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2888,13 +3300,13 @@
       <c r="P35" s="5"/>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
+      <c r="G36" s="5"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="12"/>
@@ -2905,13 +3317,15 @@
       <c r="P36" s="5"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="4"/>
+      <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="6"/>
+      <c r="E37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
@@ -2922,13 +3336,15 @@
       <c r="P37" s="5"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G38" s="53"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2938,14 +3354,14 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
     </row>
-    <row r="39" spans="1:16" customHeight="1" ht="15">
-      <c r="A39" s="7"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="9"/>
+    <row r="39" spans="1:16">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
@@ -3020,6 +3436,63 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="I24:N25"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="M26:N26"/>
@@ -3036,25 +3509,6 @@
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="I24:N25"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CORE/files/excel/slp2.xlsx
+++ b/CORE/files/excel/slp2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>POTVRDA O IZVRŠENJU NALOGA</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Datum</t>
   </si>
   <si>
-    <t>08.09.2021</t>
+    <t>09.09.2021</t>
   </si>
   <si>
     <t>M.P</t>
@@ -96,7 +96,7 @@
     <t>3. Potvrđuje se da je</t>
   </si>
   <si>
-    <t>TU, Bosna i Hercegovina</t>
+    <t>TU</t>
   </si>
   <si>
     <t>radi</t>
@@ -184,7 +184,7 @@
     <t>A) Troškovi prevoza</t>
   </si>
   <si>
-    <t>Ukupno</t>
+    <t>UKUPNO</t>
   </si>
   <si>
     <t>Relacija</t>
@@ -214,6 +214,9 @@
     <t>Saputnik</t>
   </si>
   <si>
+    <t>Prevoz</t>
+  </si>
+  <si>
     <t>B) Dnevnice</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
     <t>% dodatak na dnevnice</t>
   </si>
   <si>
+    <t>dnevnice</t>
+  </si>
+  <si>
     <t>C) Ostali izdaci (uz dokumentaciju)</t>
   </si>
   <si>
@@ -236,6 +242,9 @@
   </si>
   <si>
     <t>BAZEN</t>
+  </si>
+  <si>
+    <t>ostali izdaci</t>
   </si>
   <si>
     <t>D) Ukupni troškovi putovanja</t>
@@ -401,6 +410,11 @@
       </top>
     </border>
     <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -412,8 +426,30 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -422,6 +458,46 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
@@ -430,7 +506,99 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <bottom style="thin">
@@ -438,7 +606,52 @@
       </bottom>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
@@ -449,213 +662,9 @@
       </bottom>
     </border>
     <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -664,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -746,10 +755,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -758,9 +764,6 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
@@ -770,7 +773,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -851,58 +854,145 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="33" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="35" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -911,131 +1001,56 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="24" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="36" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="20" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="33" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="34" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="35" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="15" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="36" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1352,62 +1367,62 @@
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="24">
       <c r="A1" s="5"/>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="5"/>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
       <c r="M1" s="10"/>
       <c r="N1" s="10"/>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="I2" s="63" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="I2" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="24">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1417,23 +1432,23 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="66"/>
+      <c r="K4" s="63"/>
       <c r="L4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1467,8 +1482,8 @@
       <c r="E6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1484,31 +1499,31 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="49" t="s">
+      <c r="F7" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="I7" s="69" t="s">
+      <c r="G7" s="47"/>
+      <c r="I7" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="14.4">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
       <c r="I8" s="14"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -1519,50 +1534,50 @@
       <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="I9" s="72" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="I9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
       <c r="D10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="21">
       <c r="A11" s="5"/>
@@ -1572,21 +1587,21 @@
       <c r="E11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="I11" s="67" t="s">
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="I11" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="62" t="s">
+      <c r="J11" s="64"/>
+      <c r="K11" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="62"/>
-      <c r="M11" s="67" t="s">
+      <c r="L11" s="67"/>
+      <c r="M11" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="67"/>
-      <c r="O11" s="52" t="s">
+      <c r="N11" s="64"/>
+      <c r="O11" s="50" t="s">
         <v>20</v>
       </c>
       <c r="P11" s="12" t="s">
@@ -1599,101 +1614,99 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="I12" s="45" t="s">
+      <c r="G12" s="70"/>
+      <c r="I12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+    </row>
+    <row r="13" spans="1:16" customHeight="1" ht="24.6">
+      <c r="A13" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-    </row>
-    <row r="13" spans="1:16" customHeight="1" ht="24.6">
-      <c r="A13" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="I13" s="73" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="I13" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="24">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
       <c r="I14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="66" t="s">
+      <c r="J14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
     </row>
     <row r="15" spans="1:16" customHeight="1" ht="24">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
       <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="67" t="s">
+      <c r="I15" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="66">
+      <c r="J15" s="64"/>
+      <c r="K15" s="63">
         <v>1</v>
       </c>
-      <c r="L15" s="66"/>
-      <c r="M15" s="43" t="s">
+      <c r="L15" s="63"/>
+      <c r="M15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="66">
+      <c r="N15" s="63">
         <v>10</v>
       </c>
-      <c r="O15" s="66"/>
-      <c r="P15" s="43" t="s">
+      <c r="O15" s="63"/>
+      <c r="P15" s="41" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1705,20 +1718,20 @@
       <c r="E16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="I16" s="67" t="s">
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="I16" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="66" t="s">
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
     </row>
     <row r="17" spans="1:16" customHeight="1" ht="24">
       <c r="A17" s="5"/>
@@ -1726,56 +1739,56 @@
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="63" t="s">
+      <c r="F17" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="63"/>
-      <c r="I17" s="67" t="s">
+      <c r="G17" s="70"/>
+      <c r="I17" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="62" t="s">
+      <c r="J17" s="64"/>
+      <c r="K17" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67"/>
     </row>
     <row r="18" spans="1:16" customHeight="1" ht="24">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="I18" s="67" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="I18" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="74" t="s">
+      <c r="J18" s="64"/>
+      <c r="K18" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="64" t="s">
+      <c r="A19" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="9"/>
@@ -1789,13 +1802,13 @@
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="5" t="s">
         <v>8</v>
       </c>
@@ -1821,9 +1834,9 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="5"/>
@@ -1833,8 +1846,8 @@
       <c r="E22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1851,10 +1864,10 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="63"/>
+      <c r="G23" s="70"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -1875,38 +1888,38 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="64" t="s">
+      <c r="A25" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
       <c r="D27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="5" t="s">
         <v>8</v>
       </c>
@@ -1928,8 +1941,8 @@
       <c r="E29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="5"/>
@@ -1937,10 +1950,10 @@
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="70"/>
     </row>
     <row r="58" spans="1:16">
       <c r="A58" s="5"/>
@@ -1954,11 +1967,28 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="K18:P18"/>
     <mergeCell ref="N21:P21"/>
@@ -1969,44 +1999,27 @@
     <mergeCell ref="J12:K12"/>
     <mergeCell ref="M12:P12"/>
     <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:P16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="I7:P7"/>
-    <mergeCell ref="M16:P16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="N15:O15"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,7 +2044,7 @@
   <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2053,61 +2066,61 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="3"/>
-      <c r="I1" s="54" t="s">
+      <c r="I1" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="54" t="s">
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
       <c r="P1" s="14"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="24">
       <c r="A2" s="4"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
       <c r="G2" s="6"/>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="24">
       <c r="A3" s="4"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="6"/>
       <c r="I3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
-      <c r="L3" s="62" t="s">
+      <c r="L3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="67"/>
       <c r="N3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="52" t="s">
+      <c r="O3" s="50" t="s">
         <v>48</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -2122,19 +2135,19 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="66" t="s">
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="M4" s="66"/>
+      <c r="M4" s="63"/>
       <c r="N4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="41" t="s">
         <v>51</v>
       </c>
       <c r="P4" s="11" t="s">
@@ -2149,19 +2162,19 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="I5" s="67" t="s">
+      <c r="I5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="66">
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="63">
         <v>1</v>
       </c>
-      <c r="M5" s="66"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="41">
         <v>10</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -2193,18 +2206,18 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100" t="s">
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="P7" s="101"/>
+      <c r="P7" s="102"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="18.6">
       <c r="A8" s="4"/>
@@ -2214,18 +2227,18 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="I8" s="77" t="s">
+      <c r="I8" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
       <c r="N8" s="20" t="s">
         <v>57</v>
       </c>
       <c r="O8" s="25"/>
-      <c r="P8" s="37"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4"/>
@@ -2235,18 +2248,18 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="I9" s="83" t="s">
+      <c r="I9" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="85"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
       <c r="M9" s="22"/>
       <c r="N9" s="20">
         <v>1</v>
       </c>
       <c r="O9" s="19"/>
-      <c r="P9" s="38"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4"/>
@@ -2256,12 +2269,12 @@
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="I10" s="83" t="s">
+      <c r="I10" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="85"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="22"/>
       <c r="N10" s="20">
         <v>2</v>
@@ -2269,7 +2282,7 @@
       <c r="O10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="P10" s="39" t="str">
+      <c r="P10" s="37" t="str">
         <f>SUM(N9,N10,N11,N12,N13)</f>
         <v>0</v>
       </c>
@@ -2282,18 +2295,18 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="I11" s="83" t="s">
+      <c r="I11" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="47"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="112"/>
+      <c r="M11" s="45"/>
       <c r="N11" s="21">
         <v>3</v>
       </c>
       <c r="O11" s="19"/>
-      <c r="P11" s="38"/>
+      <c r="P11" s="36"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="4"/>
@@ -2303,20 +2316,20 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="I12" s="86" t="s">
+      <c r="I12" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="48"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="46"/>
       <c r="N12" s="7">
         <v>4</v>
       </c>
       <c r="O12" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P12" s="39" t="str">
+      <c r="P12" s="37" t="str">
         <f>SUM(N9,N10,N11,N12,N13)/2</f>
         <v>0</v>
       </c>
@@ -2329,18 +2342,20 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="113" t="s">
         <v>64</v>
       </c>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="48"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="46"/>
       <c r="N13" s="7">
         <v>5</v>
       </c>
-      <c r="O13" s="26"/>
-      <c r="P13" s="39"/>
+      <c r="O13" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="122"/>
     </row>
     <row r="14" spans="1:16" customHeight="1" ht="18">
       <c r="A14" s="4"/>
@@ -2350,16 +2365,16 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="I14" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
+      <c r="I14" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
       <c r="O14" s="25"/>
-      <c r="P14" s="40"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="4"/>
@@ -2369,23 +2384,23 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="93">
+      <c r="I15" s="119">
         <v>1.5</v>
       </c>
-      <c r="J15" s="94"/>
-      <c r="K15" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="28"/>
-      <c r="M15" s="94">
-        <v>37.5</v>
-      </c>
-      <c r="N15" s="94"/>
-      <c r="O15" s="29" t="s">
+      <c r="J15" s="120"/>
+      <c r="K15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="27"/>
+      <c r="M15" s="120">
+        <v>0</v>
+      </c>
+      <c r="N15" s="120"/>
+      <c r="O15" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="P15" s="41">
-        <v>26.25</v>
+      <c r="P15" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2396,23 +2411,23 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="95">
+      <c r="I16" s="121">
         <v>1.5</v>
       </c>
-      <c r="J16" s="66"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="96" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="96"/>
-      <c r="M16" s="90">
-        <v>18.75</v>
-      </c>
-      <c r="N16" s="90"/>
-      <c r="O16" s="30" t="s">
+      <c r="M16" s="75">
+        <v>0</v>
+      </c>
+      <c r="N16" s="75"/>
+      <c r="O16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="P16" s="42">
-        <v>13.125</v>
+      <c r="P16" s="40">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2423,18 +2438,20 @@
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="90">
+      <c r="I17" s="116" t="s">
+        <v>69</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="75">
         <v>90</v>
       </c>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="41"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="125"/>
     </row>
     <row r="18" spans="1:16" customHeight="1" ht="21">
       <c r="A18" s="4"/>
@@ -2444,16 +2461,16 @@
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="I18" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="40"/>
+      <c r="I18" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="38"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="4"/>
@@ -2463,20 +2480,20 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
-      <c r="I19" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="44">
+      <c r="I19" s="82" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="42">
         <v>25</v>
       </c>
-      <c r="O19" s="33" t="s">
+      <c r="O19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="P19" s="41" t="str">
+      <c r="P19" s="39" t="str">
         <f>SUM(N19:N21)</f>
         <v>0</v>
       </c>
@@ -2489,20 +2506,20 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6"/>
-      <c r="I20" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="44">
+      <c r="I20" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="42">
         <v>6</v>
       </c>
-      <c r="O20" s="33" t="s">
+      <c r="O20" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="42" t="str">
+      <c r="P20" s="40" t="str">
         <f>SUM(N19:N21)/2</f>
         <v>0</v>
       </c>
@@ -2515,18 +2532,20 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
-      <c r="I21" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="44">
+      <c r="I21" s="82" t="s">
+        <v>74</v>
+      </c>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="83"/>
+      <c r="N21" s="42">
         <v>12</v>
       </c>
-      <c r="O21" s="31"/>
-      <c r="P21" s="41"/>
+      <c r="O21" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="P21" s="125"/>
     </row>
     <row r="22" spans="1:16" customHeight="1" ht="14.4">
       <c r="A22" s="4"/>
@@ -2535,19 +2554,19 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="46"/>
-      <c r="I22" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="34" t="s">
+      <c r="G22" s="44"/>
+      <c r="I22" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P22" s="42" t="str">
+      <c r="P22" s="40" t="str">
         <f>SUM(P10,P15,P19)</f>
         <v>0</v>
       </c>
@@ -2560,16 +2579,16 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
-      <c r="L23" s="118"/>
-      <c r="M23" s="118"/>
-      <c r="N23" s="119"/>
-      <c r="O23" s="35" t="s">
+      <c r="I23" s="87"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="P23" s="42" t="str">
+      <c r="P23" s="40" t="str">
         <f>SUM(P12,P16,P20)/2</f>
         <v>0</v>
       </c>
@@ -2580,118 +2599,118 @@
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="55"/>
-      <c r="I24" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="34" t="s">
+      <c r="F24" s="51"/>
+      <c r="G24" s="53"/>
+      <c r="I24" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="42">
+      <c r="P24" s="40">
         <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="56"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="57"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="122"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="35" t="s">
+      <c r="G25" s="55"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="40">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="20.4">
-      <c r="A26" s="56"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="57"/>
-      <c r="I26" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="36" t="s">
+      <c r="D26" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="55"/>
+      <c r="I26" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="M26" s="81" t="str">
+      <c r="M26" s="108" t="str">
         <f>P22-P24</f>
         <v>0</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="61" t="s">
+      <c r="N26" s="109"/>
+      <c r="O26" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="42" t="str">
+      <c r="P26" s="40" t="str">
         <f>P23-P25</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="56"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="57"/>
-      <c r="I27" s="106" t="s">
-        <v>77</v>
-      </c>
-      <c r="J27" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" s="109"/>
-      <c r="L27" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="M27" s="109"/>
-      <c r="N27" s="108" t="s">
+      <c r="G27" s="55"/>
+      <c r="I27" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="O27" s="109"/>
-      <c r="P27" s="104" t="s">
+      <c r="J27" s="78" t="s">
         <v>81</v>
       </c>
+      <c r="K27" s="79"/>
+      <c r="L27" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="79"/>
+      <c r="N27" s="78" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="79"/>
+      <c r="P27" s="73" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="28" spans="1:16" customHeight="1" ht="25.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="111"/>
-      <c r="P28" s="105"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="81"/>
+      <c r="P28" s="74"/>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="11"/>
@@ -2852,8 +2871,8 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -2945,29 +2964,9 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="P27:P28"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="L27:M28"/>
-    <mergeCell ref="N27:O28"/>
-    <mergeCell ref="I19:M19"/>
-    <mergeCell ref="I20:M20"/>
-    <mergeCell ref="I21:M21"/>
-    <mergeCell ref="I22:N23"/>
-    <mergeCell ref="I24:N25"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="I7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="I8:M8"/>
     <mergeCell ref="I26:K26"/>
@@ -2984,6 +2983,29 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="I7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:K28"/>
+    <mergeCell ref="L27:M28"/>
+    <mergeCell ref="N27:O28"/>
+    <mergeCell ref="I19:M19"/>
+    <mergeCell ref="I20:M20"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="I22:N23"/>
+    <mergeCell ref="I24:N25"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
